--- a/Tools/ExcelCfg/Excels/UIPanelConfig.xlsx
+++ b/Tools/ExcelCfg/Excels/UIPanelConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>唯一id</t>
   </si>
@@ -42,52 +42,76 @@
     <t>str</t>
   </si>
   <si>
-    <t>LogonPanel</t>
-  </si>
-  <si>
-    <t>Assets/Test/Prefabs/Panel/LogonPanel.prefab</t>
-  </si>
-  <si>
-    <t>SelectHeroPanel</t>
-  </si>
-  <si>
-    <t>Assets/Test/Prefabs/Panel/SelectHeroPanel.prefab</t>
-  </si>
-  <si>
-    <t>MainPanel</t>
-  </si>
-  <si>
-    <t>Assets/Test/Prefabs/Panel/MainPanel.prefab</t>
-  </si>
-  <si>
-    <t>ConfirmPopupPanel</t>
-  </si>
-  <si>
-    <t>Assets/Test/Prefabs/PopupPanel/ConfirmPopupPanel.prefab</t>
-  </si>
-  <si>
-    <t>GoodsInfoPopupPanel</t>
-  </si>
-  <si>
-    <t>Assets/Test/Prefabs/PopupPanel/GoodsInfoPopupPanel.prefab</t>
-  </si>
-  <si>
-    <t>MarketPopupPanel</t>
-  </si>
-  <si>
-    <t>Assets/Test/Prefabs/PopupPanel/MarketPopupPanel.prefab</t>
-  </si>
-  <si>
-    <t>HeroInfo</t>
-  </si>
-  <si>
-    <t>Assets/Test/Prefabs/Fixed/HeroInfo.prefab</t>
-  </si>
-  <si>
     <t>APanel</t>
   </si>
   <si>
     <t>Assets/Test/Prefabs/Panel/APanel.prefab</t>
+  </si>
+  <si>
+    <t>BPanel</t>
+  </si>
+  <si>
+    <t>Assets/Test/Prefabs/Panel/BPanel.prefab</t>
+  </si>
+  <si>
+    <t>CPanel</t>
+  </si>
+  <si>
+    <t>Assets/Test/Prefabs/Panel/CPanel.prefab</t>
+  </si>
+  <si>
+    <t>DPanel</t>
+  </si>
+  <si>
+    <t>Assets/Test/Prefabs/Panel/DPanel.prefab</t>
+  </si>
+  <si>
+    <t>EPanel</t>
+  </si>
+  <si>
+    <t>Assets/Test/Prefabs/Panel/EPanel.prefab</t>
+  </si>
+  <si>
+    <t>FPanel</t>
+  </si>
+  <si>
+    <t>Assets/Test/Prefabs/Panel/FPanel.prefab</t>
+  </si>
+  <si>
+    <t>APopPanel</t>
+  </si>
+  <si>
+    <t>Assets/Test/Prefabs/PopupPanel/APopPanel.prefab</t>
+  </si>
+  <si>
+    <t>BPopPanel</t>
+  </si>
+  <si>
+    <t>Assets/Test/Prefabs/PopupPanel/BPopPanel.prefab</t>
+  </si>
+  <si>
+    <t>CPopPanel</t>
+  </si>
+  <si>
+    <t>Assets/Test/Prefabs/PopupPanel/CPopPanel.prefab</t>
+  </si>
+  <si>
+    <t>DPopPanel</t>
+  </si>
+  <si>
+    <t>Assets/Test/Prefabs/PopupPanel/DPopPanel.prefab</t>
+  </si>
+  <si>
+    <t>EPopPanel</t>
+  </si>
+  <si>
+    <t>Assets/Test/Prefabs/PopupPanel/EPopPanel.prefab</t>
+  </si>
+  <si>
+    <t>FPopPanel</t>
+  </si>
+  <si>
+    <t>Assets/Test/Prefabs/PopupPanel/FPopPanel.prefab</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1194,6 +1218,50 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
